--- a/downloads/12345678908/plantilla.xlsx
+++ b/downloads/12345678908/plantilla.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
-    <t>Matriz Integrada de Compromisos de la Unidad de Mi Unidad</t>
+    <t>Matriz Integrada de Compromisos de la Unidad de Mi unidad</t>
   </si>
   <si>
     <t>Número correlativo</t>
